--- a/datasets/Request_CR.xlsx
+++ b/datasets/Request_CR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Devs\Java\automation\ApachePOI\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Devs\Java\automation\Automation\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FBE124-6EFE-48FD-BFCA-3B48C5915A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6690C9-48F1-4631-B264-2678096D7382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="Kustia">Information!#REF!</definedName>
     <definedName name="Mymensingh">Information!#REF!</definedName>
     <definedName name="Noakhali">Information!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$K$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$K$9</definedName>
     <definedName name="Rajshahi">Information!#REF!</definedName>
     <definedName name="Rangpur">Information!#REF!</definedName>
     <definedName name="Sylhet">Information!#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>DHDHN41,DHDHN45</t>
+  </si>
+  <si>
+    <t>Jibon Test /// Dhaka_Moderization</t>
+  </si>
+  <si>
+    <t>New link installation
+Whole Lot of test
+LKSJDLFKJSLDFKJ</t>
   </si>
 </sst>
 </file>
@@ -235,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +318,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -359,21 +360,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -407,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -513,33 +499,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -586,29 +550,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,70 +599,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2654,8 +2563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48AD6A72-2FF7-462B-BDE0-8BA06DD5C26E}" name="Table13" displayName="Table13" ref="A1:K55" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
-  <autoFilter ref="A1:K55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48AD6A72-2FF7-462B-BDE0-8BA06DD5C26E}" name="Table13" displayName="Table13" ref="A1:K9" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Date" dataDxfId="53" totalsRowDxfId="52"/>
@@ -2989,10 +2898,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,7 +2910,7 @@
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="31" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" style="32" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3046,867 +2955,285 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>44233</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="35">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>44234</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="J3" s="35">
+        <v>1</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
         <v>44234</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37" t="s">
+      <c r="J4" s="35">
+        <v>1</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
         <v>44234</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37" t="s">
+      <c r="J5" s="35">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
         <v>44234</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37" t="s">
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
         <v>44234</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37" t="s">
+      <c r="J7" s="35">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
         <v>44234</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37" t="s">
+      <c r="J8" s="35">
+        <v>1</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
         <v>44234</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37" t="s">
+      <c r="J9" s="35">
+        <v>1</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34">
-        <v>44234</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="37"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="37"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="37"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="29"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="56"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3921,31 +3248,31 @@
           <x14:formula1>
             <xm:f>Information!$G$2:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I55</xm:sqref>
+          <xm:sqref>I2:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FB9BD10C-66C5-40CA-A50C-E592D73AC626}">
           <x14:formula1>
             <xm:f>Information!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G55</xm:sqref>
+          <xm:sqref>G2:G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{227225FF-BEDD-4FE7-980C-E16DD66C389F}">
           <x14:formula1>
             <xm:f>Information!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H55</xm:sqref>
+          <xm:sqref>H2:H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{767D9E10-E550-4329-9E81-FE84DF1610D9}">
           <x14:formula1>
             <xm:f>Information!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C55</xm:sqref>
+          <xm:sqref>C2:C9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E73C4D3-B3B5-404A-AFE2-43B60A2AAAE8}">
           <x14:formula1>
             <xm:f>Information!$A$15:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K55</xm:sqref>
+          <xm:sqref>K2:K9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4030,11 +3357,13 @@
       </c>
       <c r="D2" s="9" t="str">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>Dhaka_Moderization</v>
+        <v>Jibon Test /// Dhaka_Moderization</v>
       </c>
       <c r="E2" s="9" t="str">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>New link installation</v>
+        <v>New link installation
+Whole Lot of test
+LKSJDLFKJSLDFKJ</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>Table13[[#This Row],[Impact Site List]]</f>
@@ -4360,1809 +3689,1809 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="28">
+      <c r="K10" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="28">
+      <c r="K11" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="28">
+      <c r="K12" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="28">
+      <c r="K13" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="28">
+      <c r="K14" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="28">
+      <c r="K15" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="28">
+      <c r="K16" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="28">
+      <c r="K17" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J18" s="11"/>
-      <c r="K18" s="28">
+      <c r="K18" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="28">
+      <c r="K19" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B20" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="28">
+      <c r="K20" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B21" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="9" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" s="9" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="28">
+      <c r="K21" s="28" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B22" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="29">
+      <c r="K22" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B23" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="29">
+      <c r="K23" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="29">
+      <c r="K24" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J25" s="11"/>
-      <c r="K25" s="29">
+      <c r="K25" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B26" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J26" s="11"/>
-      <c r="K26" s="29">
+      <c r="K26" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B27" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B27" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J27" s="11"/>
-      <c r="K27" s="29">
+      <c r="K27" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B28" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B28" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="29">
+      <c r="K28" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B29" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B29" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="29">
+      <c r="K29" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B30" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" s="11"/>
-      <c r="K30" s="29">
+      <c r="K30" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" s="11"/>
-      <c r="K31" s="29">
+      <c r="K31" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B32" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J32" s="11"/>
-      <c r="K32" s="29">
+      <c r="K32" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B33" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J33" s="11"/>
-      <c r="K33" s="29">
+      <c r="K33" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B34" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="29">
+      <c r="K34" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B35" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G35" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="29">
+      <c r="K35" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B36" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="29">
+      <c r="K36" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B37" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J37" s="11"/>
-      <c r="K37" s="29">
+      <c r="K37" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B38" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="29">
+      <c r="K38" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="29">
+      <c r="K39" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="29">
+      <c r="K40" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="29">
+      <c r="K41" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B42" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H42" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="29">
+      <c r="K42" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B43" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="29">
+      <c r="K43" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J44" s="11"/>
-      <c r="K44" s="29">
+      <c r="K44" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B45" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G45" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="29">
+      <c r="K45" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B46" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G46" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J46" s="11"/>
-      <c r="K46" s="29">
+      <c r="K46" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B47" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J47" s="11"/>
-      <c r="K47" s="29">
+      <c r="K47" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B48" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J48" s="11"/>
-      <c r="K48" s="29">
+      <c r="K48" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B49" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="29">
+      <c r="K49" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B50" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B50" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J50" s="11"/>
-      <c r="K50" s="29">
+      <c r="K50" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="7" t="e">
         <f>Table13[[#This Row],[No]]</f>
-        <v>0</v>
-      </c>
-      <c r="B51" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B51" s="8" t="e">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" s="9" t="e">
         <f>Table13[[#This Row],[Project Coordinator]]</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="9" t="e">
         <f>Table13[[#This Row],[Activity Summary &amp; Project Name ]]</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="9" t="e">
         <f>Table13[[#This Row],[Activity Details]]</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="13" t="e">
         <f>Table13[[#This Row],[Impact Site List]]</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="9" t="e">
         <f>Table13[[#This Row],[Service Type]]</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="7" t="e">
         <f>Table13[[#This Row],[Down Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" s="9" t="e">
         <f>Table13[[#This Row],[Commercial Zone]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J51" s="11"/>
-      <c r="K51" s="29">
+      <c r="K51" s="29" t="e">
         <f>Table13[[#This Row],[Change Manager]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
